--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="245" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="76" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,10 +32,10 @@
     <t>End of ramp</t>
   </si>
   <si>
-    <t>/home/daniel/Encoding Thermal Stimuli/Matlab files/Exp 19 baseline data.mat</t>
-  </si>
-  <si>
-    <t>/home/daniel/Encoding Thermal Stimuli/Matlab files/Exp 27 unit 1 data.mat</t>
+    <t>/home/daniel/Spike Data/Matlab files/Exp 19 baseline data.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/Exp 27 unit 1 data.mat</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="76" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="172" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Full file name</t>
   </si>
@@ -35,7 +35,16 @@
     <t>/home/daniel/Spike Data/Matlab files/Exp 19 baseline data.mat</t>
   </si>
   <si>
-    <t>/home/daniel/Spike Data/Matlab files/Exp 27 unit 1 data.mat</t>
+    <t>/home/daniel/Spike Data/Matlab files/exp 30 slow baseline.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/exp 37 unit 1.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/exp 43 unit 1.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/Exp 41 - two neuronal units slow ramps.mat</t>
   </si>
 </sst>
 </file>
@@ -132,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -163,6 +172,18 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -189,13 +210,106 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>157400</v>
+        <v>14230</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>167100</v>
+        <v>19590</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>124200</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>129200</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>219700</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>7273</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>17560</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>342300</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>350700</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>457100</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>467900</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3241</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>9703</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>125700</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>13720</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>21230</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>103100</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>110100</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>307600</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>313300</v>
       </c>
     </row>
   </sheetData>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Full file name</t>
   </si>
   <si>
     <t>Spikes channel num</t>
+  </si>
+  <si>
+    <t>Resting Rate</t>
   </si>
   <si>
     <t>Number of trials</t>
@@ -141,19 +144,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,142 +176,160 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>10250</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>21490</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>14230</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>19590</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>124200</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>129200</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>219700</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>225700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>7273</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>17560</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>342300</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>350700</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>457100</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>467900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>7.05</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>3241</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>9703</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>125700</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>13720</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>21230</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>103100</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>110100</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>307600</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>313300</v>
       </c>
     </row>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Full file name</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>/home/daniel/Spike Data/Matlab files/Exp 41 - two neuronal units slow ramps.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/Exp 18 baseline data.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/exp 28 baseline.mat</t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -333,6 +339,70 @@
         <v>313300</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>15440</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>19220</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>62700</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>72460</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>156300</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>167500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7537</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>15450</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>270600</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>275400</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>434000</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>440000</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="172" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="53" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Full file name</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Spikes channel num</t>
   </si>
   <si>
+    <t>Number of trials</t>
+  </si>
+  <si>
     <t>Resting Rate</t>
-  </si>
-  <si>
-    <t>Number of trials</t>
   </si>
   <si>
     <t>Start of ramp</t>
@@ -150,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -161,8 +161,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.4948979591837"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.4744897959184"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,15 +185,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -205,10 +211,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10250</v>
@@ -225,10 +231,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>14230</v>
@@ -237,15 +243,21 @@
         <v>19590</v>
       </c>
       <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>124200</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>129200</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>219700</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>225700</v>
       </c>
     </row>
@@ -257,10 +269,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>6.03</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>7273</v>
@@ -269,15 +281,21 @@
         <v>17560</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>342300</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>350700</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>457100</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>467900</v>
       </c>
     </row>
@@ -289,10 +307,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>7.05</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3241</v>
@@ -301,9 +319,12 @@
         <v>9703</v>
       </c>
       <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>125700</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -315,10 +336,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>13720</v>
@@ -327,15 +348,21 @@
         <v>21230</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>103100</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>110100</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>307600</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>313300</v>
       </c>
     </row>
@@ -347,10 +374,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3.97</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>15440</v>
@@ -359,15 +386,21 @@
         <v>19220</v>
       </c>
       <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>62700</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>72460</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>156300</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>167500</v>
       </c>
     </row>
@@ -379,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>7537</v>
@@ -391,15 +424,21 @@
         <v>15450</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>270600</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>275400</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>434000</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>440000</v>
       </c>
     </row>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -234,7 +234,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>14230</v>
@@ -243,7 +243,7 @@
         <v>19590</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>124200</v>
@@ -252,7 +252,7 @@
         <v>129200</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>219700</v>
@@ -272,7 +272,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>7273</v>
@@ -281,7 +281,7 @@
         <v>17560</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>9.2</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>342300</v>
@@ -290,7 +290,7 @@
         <v>350700</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>457100</v>
@@ -310,7 +310,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3241</v>
@@ -319,7 +319,7 @@
         <v>9703</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>125700</v>
@@ -377,7 +377,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>15440</v>
@@ -386,7 +386,7 @@
         <v>19220</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>62700</v>
@@ -395,7 +395,7 @@
         <v>72460</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>156300</v>
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>7537</v>
@@ -424,7 +424,7 @@
         <v>15450</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>270600</v>
@@ -433,7 +433,7 @@
         <v>275400</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>434000</v>

--- a/C fibre ramp positions.xlsx
+++ b/C fibre ramp positions.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Full file name</t>
   </si>
@@ -54,14 +54,21 @@
   </si>
   <si>
     <t>/home/daniel/Spike Data/Matlab files/exp 28 baseline.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/Exp 27 unit 1 data.mat</t>
+  </si>
+  <si>
+    <t>/home/daniel/Spike Data/Matlab files/31 Slow ramp.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -128,8 +135,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,10 +161,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -442,6 +453,46 @@
         <v>440000</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>157400</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>167200</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>11550</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
